--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
@@ -5858,780 +5858,780 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9446,676 +9446,676 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,574 +10694,574 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11393,83 +11393,83 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>19</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Info:</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>Info:</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,416 +12514,416 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
@@ -5858,780 +5858,780 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>11</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>3</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>11</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>4</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>11</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>5</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>11</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>6</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>11</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>7</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>11</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>8</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>11</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>9</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>11</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>10</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" t="n">
         <v>11</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" t="n">
         <v>11</v>
       </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>11</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>12</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>11</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>13</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>11</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>14</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>11</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>15</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>11</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>16</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>11</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>17</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9446,676 +9446,676 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,574 +10694,574 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>18</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -11417,59 +11417,59 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12514,416 +12514,416 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
